--- a/backend-design/BackendAPIDesign-v1.xlsx
+++ b/backend-design/BackendAPIDesign-v1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SelfProject\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Projects\project-tracker\project-tracker-design\backend-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E4728E-75B1-4E4B-9BE9-E265CA8D4CCE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB7A4E-E9B3-4DAD-8383-FE30020273DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -485,9 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
